--- a/Test.xlsx
+++ b/Test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>Final Bill Payment Pending as on 28.05.2021 -RD Works</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1403,6 +1406,9 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
